--- a/biology/Botanique/Friuli_Aquileia_Traminer_aromatico/Friuli_Aquileia_Traminer_aromatico.xlsx
+++ b/biology/Botanique/Friuli_Aquileia_Traminer_aromatico/Friuli_Aquileia_Traminer_aromatico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Friuli Aquileia Traminer aromatico est un vin blanc italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 6 août 1988. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Udine dans les communes de Bagnaria Arsa, Cervignano del Friuli, Aquileia, Fiumicello, Villa Vicentina, Ruda, Campolongo Tapogliano, Aiello del Friuli, Visco et San Vito al Torre ainsi qu'en partie dans les communes de Santa Maria la Longa, Palmanova, Terzo d'Aquileia, Chiopris-Viscone, Trivignano Udinese et Gonars.
 Le Friuli Aquileia Traminer aromatico répond à un cahier des charges moins exigeant que le Friuli Aquileia Traminer aromatico superiore.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille intense
 odeur: délicat, agréable, très aromatique
@@ -578,7 +594,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Udine (1990/91) 691,11
